--- a/WMM_All_configurations/MCBXFB_02_Outer_Iron_600_20210510/Roxie_vs_MM_SkewMCBXFB_02_Outer_Iron_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Outer_Iron_600_20210510/Roxie_vs_MM_SkewMCBXFB_02_Outer_Iron_600_20210510.xlsx
@@ -618,49 +618,49 @@
         <v>-0.001146065825627318</v>
       </c>
       <c r="R2">
-        <v>-6.062183235867446</v>
+        <v>-7.240826392580781</v>
       </c>
       <c r="S2">
-        <v>0.2509060415577089</v>
+        <v>0.3513820435827589</v>
       </c>
       <c r="T2">
-        <v>10.16868212762557</v>
+        <v>22.45258902861044</v>
       </c>
       <c r="U2">
-        <v>0.0003086126755170597</v>
+        <v>0.004339934059172069</v>
       </c>
       <c r="V2">
-        <v>-0.01691843096766728</v>
+        <v>0.4197013298621567</v>
       </c>
       <c r="W2">
-        <v>-3.155562102928674E-06</v>
+        <v>0.001404677613008628</v>
       </c>
       <c r="X2">
-        <v>-1.19789043854599E-05</v>
+        <v>-0.1376938071792615</v>
       </c>
       <c r="Y2">
-        <v>3.055747859330236E-06</v>
+        <v>-0.0007923170205691378</v>
       </c>
       <c r="Z2">
-        <v>4.155444060828253E-06</v>
+        <v>0.01303606034901269</v>
       </c>
       <c r="AA2">
-        <v>3.714675663726783E-06</v>
+        <v>-0.002929485220903685</v>
       </c>
       <c r="AB2">
-        <v>-4.859818008363E-06</v>
+        <v>0.294837444895435</v>
       </c>
       <c r="AC2">
-        <v>-1.863532744735628E-06</v>
+        <v>0.0004732474772469393</v>
       </c>
       <c r="AD2">
-        <v>-2.807041680991298E-06</v>
+        <v>0.7435153598117006</v>
       </c>
       <c r="AE2">
-        <v>-6.962301469341355E-06</v>
+        <v>0.0008218734965961923</v>
       </c>
       <c r="AF2">
-        <v>1.14996671244828E-06</v>
+        <v>0.621320203849129</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -716,49 +716,49 @@
         <v>-0.001146065825627318</v>
       </c>
       <c r="R3">
-        <v>3337.6</v>
+        <v>4313.253362185714</v>
       </c>
       <c r="S3">
-        <v>-0.08592694276306137</v>
+        <v>-1.118761333820733</v>
       </c>
       <c r="T3">
-        <v>279.9510105035105</v>
+        <v>21.051775866908</v>
       </c>
       <c r="U3">
-        <v>0.005532626573781676</v>
+        <v>-0.04745906636732242</v>
       </c>
       <c r="V3">
-        <v>-70.35957920079881</v>
+        <v>9.210759579308689</v>
       </c>
       <c r="W3">
-        <v>0.0007534288975266754</v>
+        <v>0.001978843311109408</v>
       </c>
       <c r="X3">
-        <v>8.299889141778873</v>
+        <v>0.1822022246945415</v>
       </c>
       <c r="Y3">
-        <v>-6.642529718282575E-05</v>
+        <v>-0.000965078893784694</v>
       </c>
       <c r="Z3">
-        <v>-0.7357276323230079</v>
+        <v>0.06377910661185253</v>
       </c>
       <c r="AA3">
-        <v>1.872977604191148E-05</v>
+        <v>0.0006691543846840598</v>
       </c>
       <c r="AB3">
-        <v>0.03789654722377719</v>
+        <v>0.06824301221931306</v>
       </c>
       <c r="AC3">
-        <v>-1.467871373482838E-05</v>
+        <v>0.0002360696014743935</v>
       </c>
       <c r="AD3">
-        <v>0.004485545361020781</v>
+        <v>-0.04946971704754794</v>
       </c>
       <c r="AE3">
-        <v>2.189332256488488E-05</v>
+        <v>-0.0005038630672550139</v>
       </c>
       <c r="AF3">
-        <v>-0.0008163984525340752</v>
+        <v>-0.008546953309617722</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -814,49 +814,49 @@
         <v>-0.001146065825627318</v>
       </c>
       <c r="R4">
-        <v>10000</v>
+        <v>9997.437929212892</v>
       </c>
       <c r="S4">
-        <v>-0.005079814814814815</v>
+        <v>-0.001055656456461628</v>
       </c>
       <c r="T4">
-        <v>7.749444444444444</v>
+        <v>7.740648839771194</v>
       </c>
       <c r="U4">
-        <v>0.001741962962962963</v>
+        <v>0.0008201392852694725</v>
       </c>
       <c r="V4">
-        <v>2.40862962962963</v>
+        <v>2.402928493560269</v>
       </c>
       <c r="W4">
-        <v>6.022962962962962E-05</v>
+        <v>-4.096455814431786E-05</v>
       </c>
       <c r="X4">
-        <v>-3.919259259259259</v>
+        <v>-3.921634704967828</v>
       </c>
       <c r="Y4">
-        <v>-4.067592592592592E-06</v>
+        <v>3.982805569915013E-06</v>
       </c>
       <c r="Z4">
-        <v>0.7599074074074074</v>
+        <v>0.7599493813072993</v>
       </c>
       <c r="AA4">
-        <v>-5.75622962962963E-07</v>
+        <v>1.085310906157008E-06</v>
       </c>
       <c r="AB4">
-        <v>0.02682666666666667</v>
+        <v>0.02741775926697105</v>
       </c>
       <c r="AC4">
-        <v>-3.553148148148147E-07</v>
+        <v>2.128345052227205E-08</v>
       </c>
       <c r="AD4">
-        <v>-0.06909074074074073</v>
+        <v>-0.06867138635811931</v>
       </c>
       <c r="AE4">
-        <v>1.680925925925926E-07</v>
+        <v>3.227657493924885E-06</v>
       </c>
       <c r="AF4">
-        <v>-0.001925851851851852</v>
+        <v>-0.0009074448390133213</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -912,49 +912,49 @@
         <v>-0.001146065825627318</v>
       </c>
       <c r="R5">
-        <v>3361.755555555555</v>
+        <v>4325.340854320985</v>
       </c>
       <c r="S5">
-        <v>0.148307493207444</v>
+        <v>0.7316510225656557</v>
       </c>
       <c r="T5">
-        <v>250.36983580489</v>
+        <v>-18.04862932381701</v>
       </c>
       <c r="U5">
-        <v>-0.0003649887653857362</v>
+        <v>0.008136414269539307</v>
       </c>
       <c r="V5">
-        <v>-65.35403452111868</v>
+        <v>15.92920295419021</v>
       </c>
       <c r="W5">
-        <v>-0.0009662493309360368</v>
+        <v>-0.001770117907356944</v>
       </c>
       <c r="X5">
-        <v>7.672064886201234</v>
+        <v>-2.456993173473144</v>
       </c>
       <c r="Y5">
-        <v>-6.38766926487928E-05</v>
+        <v>0.0002673940330883534</v>
       </c>
       <c r="Z5">
-        <v>-0.6130739679661565</v>
+        <v>0.4990117972725241</v>
       </c>
       <c r="AA5">
-        <v>-4.616514581080584E-05</v>
+        <v>0.0008627004890920778</v>
       </c>
       <c r="AB5">
-        <v>0.01129870060717722</v>
+        <v>0.01538432871142599</v>
       </c>
       <c r="AC5">
-        <v>-3.430372585374653E-05</v>
+        <v>-0.000183423118325457</v>
       </c>
       <c r="AD5">
-        <v>0.007976035850892878</v>
+        <v>-0.0801513471109218</v>
       </c>
       <c r="AE5">
-        <v>-4.927615385943154E-05</v>
+        <v>-0.0007459143316968914</v>
       </c>
       <c r="AF5">
-        <v>-0.002535391520482131</v>
+        <v>-0.02723322360233002</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1010,49 +1010,49 @@
         <v>-0.001146065825627318</v>
       </c>
       <c r="R6">
-        <v>-4.530682261208576</v>
+        <v>-4.975746590241031</v>
       </c>
       <c r="S6">
-        <v>-0.7338838991982447</v>
+        <v>-1.252142251256515</v>
       </c>
       <c r="T6">
-        <v>14.22136644261004</v>
+        <v>43.16671553699349</v>
       </c>
       <c r="U6">
-        <v>2.28458099899563E-05</v>
+        <v>-0.007176318270116911</v>
       </c>
       <c r="V6">
-        <v>-0.02215934491088255</v>
+        <v>0.4763565551366696</v>
       </c>
       <c r="W6">
-        <v>2.405058732537706E-06</v>
+        <v>-0.002057183907657384</v>
       </c>
       <c r="X6">
-        <v>-2.176705378437464E-05</v>
+        <v>-0.1472349623643906</v>
       </c>
       <c r="Y6">
-        <v>-1.320282590442571E-06</v>
+        <v>0.004179577911537343</v>
       </c>
       <c r="Z6">
-        <v>-3.178705741300749E-06</v>
+        <v>-0.1771378581653105</v>
       </c>
       <c r="AA6">
-        <v>3.106784259317734E-08</v>
+        <v>0.0006234878728353121</v>
       </c>
       <c r="AB6">
-        <v>-2.072458603915362E-06</v>
+        <v>0.3617160997854378</v>
       </c>
       <c r="AC6">
-        <v>-1.895853158347689E-06</v>
+        <v>0.0007227058693068927</v>
       </c>
       <c r="AD6">
-        <v>-1.792491546524425E-06</v>
+        <v>1.126479774209672</v>
       </c>
       <c r="AE6">
-        <v>-2.233599198941928E-06</v>
+        <v>-0.005391568118394455</v>
       </c>
       <c r="AF6">
-        <v>2.473082807518484E-07</v>
+        <v>0.8063442464188232</v>
       </c>
     </row>
   </sheetData>
